--- a/medicine/Enfance/Alice_Butaud/Alice_Butaud.xlsx
+++ b/medicine/Enfance/Alice_Butaud/Alice_Butaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Butaud, née le 30 novembre 1983 à Boulogne-Billancourt, est une écrivaine et actrice française de cinéma et de théâtre.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Formée à l'École Claude Mathieu, elle s'est fait connaître du grand public pour avoir donné la réplique à deux reprises à Louis Garrel dans les films Dans Paris (2006) et Les Chansons d'amour (2007) de Christophe Honoré.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cinéma
-2006 : Dans Paris de Christophe Honoré
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2006 : Dans Paris de Christophe Honoré
 2007 : Les Chansons d'amour de Christophe Honoré
 2008 : La Belle Personne de Christophe Honoré
 2008 : Passager permanent (court métrage) de Thibault Émin
@@ -558,49 +577,50 @@
 2012 : Nous ne ferons pas d'histoires (court-métrage) de Julie Debiton
 2012 : Je fais feu de tout bois de Dante Desarthe
 2012 : Mauvaise Fille de Patrick Mille
-2013 : J'ai pas envie qu'on se quitte maintenant (court métrage) de Joachim Cohen
-Télévision
-2006 : Sartre, l'âge des passions de Claude Goretta
+2013 : J'ai pas envie qu'on se quitte maintenant (court métrage) de Joachim Cohen</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_Butaud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Butaud</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2006 : Sartre, l'âge des passions de Claude Goretta
 2007 : Danielle Darrieux, une vie de cinéma de Anne Wiazemsky
 2008 : Adrien de Pascale Bailly
 2011 : Rituels meurtriers de Olivier Guignard
 2011 : Louis XVI, l'homme qui ne voulait pas être roi de Thierry Binisti
 2011 : Les Robins des pauvres de Frédéric Tellier
 2012 : Les Revenants, série de Fabrice Gobert
-2013 : Berthe Morisot de Caroline Champetier
-Réalisation
-2014 : Coloriage (court métrage)
-Sélection Panorama au Festival Côté court de Pantin 2014[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice_Butaud</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alice_Butaud</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Théâtre</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2009 : Je vois des choses que vous ne voyez pas de Geneviève Brisac jouée à la Manufacture des Abbesses[2]</t>
+2013 : Berthe Morisot de Caroline Champetier</t>
         </is>
       </c>
     </row>
@@ -625,50 +645,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2014 : Coloriage (court métrage)
+Sélection Panorama au Festival Côté court de Pantin 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alice_Butaud</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Butaud</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2009 : Je vois des choses que vous ne voyez pas de Geneviève Brisac jouée à la Manufacture des Abbesses</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alice_Butaud</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Butaud</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Théâtre
- Je vois des choses que vous ne voyez pas : théâtre, de Geneviève Brisac, chansons d'Alice Butaud, illustrations de Nadja, Actes Sud-Papiers, 2008
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Je vois des choses que vous ne voyez pas : théâtre, de Geneviève Brisac, chansons d'Alice Butaud, illustrations de Nadja, Actes Sud-Papiers, 2008
 La Guerre des deux roses, écrit à quatre mains avec Geneviève Brisac, éd. L'Avant-scène théâtre, 2010
-La Mère Noël, écrit à quatre mains avec Geneviève Brisac, l'Ecole des Loisirs, 2012
-Jeunesse
- La Vie volée de Becca Pie, texte de Alice Butaud, illustrations de Boaz Lehahn, l'École des loisirs, 2015
+La Mère Noël, écrit à quatre mains avec Geneviève Brisac, l'Ecole des Loisirs, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alice_Butaud</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Butaud</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Vie volée de Becca Pie, texte de Alice Butaud, illustrations de Boaz Lehahn, l'École des loisirs, 2015
 Les zozos, écrit avec Marika Mathieu, illustrations de Soledad Bravi, l'Ecole des Loisirs, 2015
  Les trois cœurs : exposé sous-marin (de CM1), Alice Butaud et Marika Mathieu, illustrations de Soledad Bravi, l'École des loisirs, 2016
 Les filles montent pas si haut d'habitude, texte de Alice Butaud, illustrations de François Ravard, Gallimard jeunesse, 2021</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Alice_Butaud</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_Butaud</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2021 : « Pépite » du Salon du livre et de la presse jeunesse[3], catégorie Fiction Junior, pour Les Filles montent pas si haut d’habitude, illustrations de François Ravard</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2021 : « Pépite » du Salon du livre et de la presse jeunesse, catégorie Fiction Junior, pour Les Filles montent pas si haut d’habitude, illustrations de François Ravard</t>
         </is>
       </c>
     </row>
